--- a/pred_ohlcv/54_21/2020-01-12 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-73.14369999999995</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-72.53669999999995</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-68.93669999999996</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-69.61929999999995</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-72.68529999999996</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-51.98529999999995</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-62.79919999999996</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-60.20939999999996</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-49.70479999999996</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-53.89359999999996</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-20.54269999999996</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-20.54269999999996</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2.573199999999964</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>77.84050000000003</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>87.55150000000003</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>160.4783</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>160.4783</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>160.4783</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>168.1043000000001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>168.1043000000001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>178.6387000000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>178.6387000000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>183.2591</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>183.2591</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>197.2591</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>197.2591</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>204.1591000000001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>204.1591000000001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>220.9584</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>220.9584</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>270.1575</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>309.3534</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>316.64086311</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>372.07586311</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>391.56556311</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>384.97036311</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>390.53150153</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>370.52550153</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>378.2290015300001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>401.15140153</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>490.31830153</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>460.0931508600002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>447.2624508600002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>454.2047508600002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>471.0269871800002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>455.7516871800001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>461.5954871800001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>461.5954871800001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>461.6954871800002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>459.5697871800002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>292.81726691</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>288.70726691</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>641.14380653</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>624.30660653</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>610.9099065299999</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>609.88120653</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>596.40850653</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>611.5944065299999</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>614.2711065299999</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>621.0524065299999</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-73.14369999999995</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-72.53669999999995</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-68.93669999999996</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-69.61929999999995</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-51.98529999999995</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-62.79919999999996</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-49.70479999999996</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2.573199999999964</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>77.84050000000003</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>87.55150000000003</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>160.4783</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>160.4783</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>160.4783</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>168.1043000000001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>168.1043000000001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>178.6387000000001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>178.6387000000001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>183.2591</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>183.2591</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>197.2591</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>197.2591</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>204.1591000000001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>204.1591000000001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>220.9584</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>220.9584</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>270.1575</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>309.3534</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>316.64086311</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>372.07586311</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>391.56556311</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>384.97036311</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>390.53150153</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>370.52550153</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>378.2290015300001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>401.15140153</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>490.31830153</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>637.55080481</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>460.0931508600002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>447.2624508600002</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>454.2047508600002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>471.0269871800002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>455.7516871800001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>461.5954871800001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>461.5954871800001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>461.6954871800002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>459.5697871800002</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>292.81726691</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>288.70726691</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>672.2940065299999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>672.27400653</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>672.27400653</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>641.14380653</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>624.30660653</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>610.9099065299999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>609.88120653</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>596.40850653</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>611.5944065299999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>614.2711065299999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>621.0524065299999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
